--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,13 +19,12 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -34,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -43,15 +41,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -64,98 +60,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+  <si>
+    <t>关卡id</t>
+  </si>
+  <si>
+    <t>小球设置</t>
+  </si>
+  <si>
+    <t>过关步数</t>
+  </si>
+  <si>
+    <t>达成关卡面积比</t>
+  </si>
+  <si>
+    <t>初始道具</t>
+  </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线条端点速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ball_setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>fill_target</t>
+  </si>
+  <si>
+    <t>initial_props</t>
   </si>
   <si>
     <t>[[1,[0,0],45],[2,[-80,70],45]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小球设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initial_props</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[[1,5],[2,2]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,24 +463,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -229,7 +815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +850,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,114 +1053,133 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26666666666667" customWidth="1"/>
+    <col min="2" max="2" width="32.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>initial_props</t>
   </si>
   <si>
-    <t>[[1,[0,0],45],[2,[-80,70],45]]</t>
+    <t>[[[200,200],[300,200]],[[100,200],[300,200]]]</t>
   </si>
   <si>
     <t>[[1,5],[2,2]]</t>
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,11 +124,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,7 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,59 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -223,11 +191,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,6 +229,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,17 +464,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,16 +509,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,184 +561,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,13 +1062,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="7.26666666666667" customWidth="1"/>
-    <col min="2" max="2" width="32.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="48.125" customWidth="1"/>
     <col min="3" max="3" width="13.5416666666667" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="13.5416666666667" customWidth="1"/>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>关卡id</t>
   </si>
@@ -92,10 +92,19 @@
     <t>initial_props</t>
   </si>
   <si>
-    <t>[[[200,200],[300,200]],[[100,200],[300,200]]]</t>
+    <t>[[[200,200],[100,200]]]</t>
   </si>
   <si>
     <t>[[1,5],[2,2]]</t>
+  </si>
+  <si>
+    <t>[[[0,0],[-150,200]]]</t>
+  </si>
+  <si>
+    <t>[[[-100,100],[100,200]],[[100,-100],[-200,-100]]]</t>
+  </si>
+  <si>
+    <t>[[[200,200],[100,200]],[[100,200],[-200,200]]]</t>
   </si>
 </sst>
 </file>
@@ -117,6 +126,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,14 +149,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,29 +194,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,79 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,30 +279,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,151 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +470,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,15 +520,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -503,46 +533,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +552,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,7 +1071,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1130,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1147,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1164,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>10</v>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>关卡id</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>[[[200,200],[100,200]],[[100,200],[-200,200]]]</t>
+  </si>
+  <si>
+    <t>[[[200,-200],[100,200]],[[100,200],[-200,200]],[[-50,200],[-150,-200]]]</t>
   </si>
 </sst>
 </file>
@@ -112,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,9 +129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,73 +138,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,8 +159,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,8 +220,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,23 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +288,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,19 +378,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,145 +438,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,17 +491,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,22 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,16 +562,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="7.26666666666667" customWidth="1"/>
     <col min="2" max="2" width="48.125" customWidth="1"/>
@@ -1185,6 +1188,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -37,11 +38,34 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-[[小球ID，[坐标]，初始方向]，……]</t>
+[[坐标，速度]，[坐标，速度]]</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+旋转切割刀：[1,[位置1],[位置2],[速度大小]]
+能量球：[2,[初始位置],[初始速度]]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>关卡id</t>
   </si>
@@ -74,6 +98,9 @@
     <t>达成关卡面积比</t>
   </si>
   <si>
+    <t>关卡障碍</t>
+  </si>
+  <si>
     <t>初始道具</t>
   </si>
   <si>
@@ -89,16 +116,25 @@
     <t>fill_target</t>
   </si>
   <si>
+    <t>obstacle</t>
+  </si>
+  <si>
     <t>initial_props</t>
   </si>
   <si>
     <t>[[[200,200],[100,200]]]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>[[1,5],[2,2]]</t>
   </si>
   <si>
     <t>[[[0,0],[-150,200]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-150,0],[150,0],[100]]]</t>
   </si>
   <si>
     <t>[[[-100,100],[100,200]],[[100,-100],[-200,-100]]]</t>
@@ -115,10 +151,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,24 +166,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,63 +208,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,7 +241,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,38 +256,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,12 +318,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,13 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,151 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +509,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,15 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -511,21 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,16 +579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,16 +594,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,24 +1105,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7.26666666666667" customWidth="1"/>
-    <col min="2" max="2" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
     <col min="3" max="3" width="13.5416666666667" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="13.5416666666667" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,30 +1139,36 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1134,15 +1177,18 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1151,15 +1197,18 @@
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1168,15 +1217,18 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1185,15 +1237,18 @@
         <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1202,7 +1257,10 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>关卡id</t>
   </si>
@@ -125,19 +125,22 @@
     <t>[[[200,200],[100,200]]]</t>
   </si>
   <si>
+    <t>[[2,[-100,-100],[80,-50]]]</t>
+  </si>
+  <si>
+    <t>[[1,5],[2,2]]</t>
+  </si>
+  <si>
+    <t>[[[0,0],[-150,200]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-150,0],[150,0],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[-100,100],[100,200]],[[100,-100],[-200,-100]]]</t>
+  </si>
+  <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>[[1,5],[2,2]]</t>
-  </si>
-  <si>
-    <t>[[[0,0],[-150,200]]]</t>
-  </si>
-  <si>
-    <t>[[1,[-150,0],[150,0],[100]]]</t>
-  </si>
-  <si>
-    <t>[[[-100,100],[100,200]],[[100,-100],[-200,-100]]]</t>
   </si>
   <si>
     <t>[[[200,200],[100,200]],[[100,200],[-200,200]]]</t>
@@ -152,9 +155,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,6 +175,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -179,6 +213,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -186,15 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +274,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -224,78 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,37 +321,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,145 +489,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,32 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,26 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,16 +573,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1113,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1217,7 +1220,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1228,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1237,7 +1240,7 @@
         <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1248,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1257,7 +1260,7 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>关卡id</t>
   </si>
@@ -137,16 +137,10 @@
     <t>[[1,[-150,0],[150,0],[100]]]</t>
   </si>
   <si>
-    <t>[[[-100,100],[100,200]],[[100,-100],[-200,-100]]]</t>
+    <t>[[[0,0],[100,200]]]</t>
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>[[[200,200],[100,200]],[[100,200],[-200,200]]]</t>
-  </si>
-  <si>
-    <t>[[[200,-200],[100,200]],[[100,200],[-200,200]],[[-50,200],[-150,-200]]]</t>
   </si>
 </sst>
 </file>
@@ -154,9 +148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -169,15 +163,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,29 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +236,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -228,30 +282,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,53 +305,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,187 +315,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,30 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,35 +520,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,156 +556,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1110,13 +1107,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.26666666666667" customWidth="1"/>
     <col min="2" max="2" width="52.375" customWidth="1"/>
@@ -1166,105 +1163,215 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>80</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>80</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>关卡id</t>
   </si>
@@ -125,7 +125,7 @@
     <t>[[[200,200],[100,200]]]</t>
   </si>
   <si>
-    <t>[[2,[-100,-100],[80,-50]]]</t>
+    <t>[]</t>
   </si>
   <si>
     <t>[[1,5],[2,2]]</t>
@@ -137,10 +137,40 @@
     <t>[[1,[-150,0],[150,0],[100]]]</t>
   </si>
   <si>
+    <t>[[[-200,0],[100,200]],[[100,-100],[100,-200]]]</t>
+  </si>
+  <si>
+    <t>[[[150,-200],[100,-200]],[[-200,0],[100,200]]]</t>
+  </si>
+  <si>
+    <t>[[2,[-100,100],[80,-50]]]</t>
+  </si>
+  <si>
+    <t>[[[0,0],[100,200]],[[-50,50],[150,-150]]]</t>
+  </si>
+  <si>
+    <t>[[1,[0,150],[0,-150],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[70,0],[-150,200]],[[-20,-50],[150,-150]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-200,150],[-200,-150],[100]],[1,[200,-150],[200,150],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[70,0],[-150,200]],[[-20,-50],[150,-150]],[[20,-150],[-150,200]]]</t>
+  </si>
+  <si>
+    <t>[[2,[-100,200],[-80,-70]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-100,-100],[100,100],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[70,0],[-150,200]],[[-20,-50],[150,-150]],[[20,-150],[-150,200]],[[120,-200],[-150,-180]]]</t>
+  </si>
+  <si>
     <t>[[[0,0],[100,200]]]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -148,8 +178,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -162,6 +192,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,24 +215,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,100 +275,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +321,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,13 +345,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,169 +489,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,39 +536,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,6 +550,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,13 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,16 +616,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1140,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1219,7 +1249,7 @@
         <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -1231,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -1240,7 +1270,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -1252,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -1261,7 +1291,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1273,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1282,7 +1312,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -1294,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -1303,7 +1333,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -1315,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -1324,7 +1354,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -1336,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1345,7 +1375,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -1357,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1366,7 +1396,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>14</v>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -38,7 +38,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-[[坐标，速度]，[坐标，速度]]</t>
+[[坐标，速度]，[坐标，速度]]
+当速度为一个值时，表示速度大小，方向随机；当速度为一个数组时，表示对应X和Y的速度</t>
         </r>
       </text>
     </comment>
@@ -61,7 +62,7 @@
           </rPr>
           <t xml:space="preserve">
 旋转切割刀：[1,[位置1],[位置2],[速度大小]]
-能量球：[2,[初始位置],[初始速度]]</t>
+能量球：[2,[初始位置],[初始速度]]，当能量求速度为一个值时，表示速度大小，为一个数组时，表示对应X和Y的速度。</t>
         </r>
       </text>
     </comment>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>关卡id</t>
   </si>
@@ -122,7 +123,7 @@
     <t>initial_props</t>
   </si>
   <si>
-    <t>[[[200,200],[100,200]]]</t>
+    <t>[[[200,200],[250]]]</t>
   </si>
   <si>
     <t>[]</t>
@@ -131,34 +132,34 @@
     <t>[[1,5],[2,2]]</t>
   </si>
   <si>
-    <t>[[[0,0],[-150,200]]]</t>
+    <t>[[[0,0],[250]]]</t>
   </si>
   <si>
     <t>[[1,[-150,0],[150,0],[100]]]</t>
   </si>
   <si>
-    <t>[[[-200,0],[100,200]],[[100,-100],[100,-200]]]</t>
-  </si>
-  <si>
-    <t>[[[150,-200],[100,-200]],[[-200,0],[100,200]]]</t>
-  </si>
-  <si>
-    <t>[[2,[-100,100],[80,-50]]]</t>
-  </si>
-  <si>
-    <t>[[[0,0],[100,200]],[[-50,50],[150,-150]]]</t>
+    <t>[[[-200,0],[250]],[[100,-100],[250]]]</t>
+  </si>
+  <si>
+    <t>[[[150,-200],[250]],[[-200,0],[250]]]</t>
+  </si>
+  <si>
+    <t>[[2,[-100,100],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[0,0],[250]],[[-50,50],[250]]]</t>
   </si>
   <si>
     <t>[[1,[0,150],[0,-150],[100]]]</t>
   </si>
   <si>
-    <t>[[[70,0],[-150,200]],[[-20,-50],[150,-150]]]</t>
+    <t>[[[70,0],[250]],[[-20,-50],[250]]]</t>
   </si>
   <si>
     <t>[[1,[-200,150],[-200,-150],[100]],[1,[200,-150],[200,150],[100]]]</t>
   </si>
   <si>
-    <t>[[[70,0],[-150,200]],[[-20,-50],[150,-150]],[[20,-150],[-150,200]]]</t>
+    <t>[[[70,0],[250]],[[-20,-50],[250]],[[20,-150],[250]]]</t>
   </si>
   <si>
     <t>[[2,[-100,200],[-80,-70]]]</t>
@@ -167,10 +168,25 @@
     <t>[[1,[-100,-100],[100,100],[100]]]</t>
   </si>
   <si>
-    <t>[[[70,0],[-150,200]],[[-20,-50],[150,-150]],[[20,-150],[-150,200]],[[120,-200],[-150,-180]]]</t>
-  </si>
-  <si>
-    <t>[[[0,0],[100,200]]]</t>
+    <t>[[[70,0],[250]],[[-20,-50],[250]],[[20,-150],[250]],[[120,-200],[250]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-200,200],[-200,0],[100]],[1,[0,200],[0,-200],[100]],[1,[200,-200],[200,0],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[70,40],[250]],[[-20,-50],[250]],[[20,-150],[250]]]</t>
+  </si>
+  <si>
+    <t>[[[-200,220],[250]],[[120,-80],[250]],[[250,-180],[250]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-150,150],[150,-150],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[170,180],[250]],[[-200,-150],[250]],[[220,-150],[250]],[[-180,180],[250]]]</t>
+  </si>
+  <si>
+    <t>[[2,[0,0],[100]]]</t>
   </si>
 </sst>
 </file>
@@ -178,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,38 +208,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,36 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -275,40 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,14 +295,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,31 +361,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,97 +505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,49 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,30 +552,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,6 +575,50 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,36 +652,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,13 +1153,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7.26666666666667" customWidth="1"/>
     <col min="2" max="2" width="52.375" customWidth="1"/>
@@ -1193,7 +1209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>80</v>
@@ -1212,9 +1228,8 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1222,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
@@ -1233,9 +1248,8 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1243,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>80</v>
@@ -1254,9 +1268,8 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1264,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>80</v>
@@ -1275,9 +1288,8 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1285,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
@@ -1296,9 +1308,8 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1306,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
@@ -1317,9 +1328,8 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1327,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
@@ -1338,9 +1348,8 @@
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
         <v>80</v>
@@ -1359,9 +1368,8 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1380,28 +1388,86 @@
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="1"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>关卡id</t>
   </si>
@@ -162,7 +162,7 @@
     <t>[[[70,0],[250]],[[-20,-50],[250]],[[20,-150],[250]]]</t>
   </si>
   <si>
-    <t>[[2,[-100,200],[-80,-70]]]</t>
+    <t>[[2,[-100,200],[100]]]</t>
   </si>
   <si>
     <t>[[1,[-100,-100],[100,100],[100]]]</t>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>[[2,[0,0],[100]]]</t>
+  </si>
+  <si>
+    <t>[[1,[0,-100],[0,100],[100]],[2,[-100,-50],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[70,40],[250]],[[-120,-50],[250]],[[20,-250],[250]]]</t>
+  </si>
+  <si>
+    <t>[[2,[0,-100],[100]],[2,[-100,-50],[100]],[2,[200,150],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[120,140],[250]],[[-120,-150],[250]],[[-120,250],[250]],[[230,-250],[250]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-200,200],[200,200],[100]],[1,[200,200],[200,-200],[100]],[1,[200,-200],[-200,-200],[100]],[1,[-200,-200],[-200,200],[100]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-200,-150],[-50,50],[100]],[1,[200,-150],[50,50],[100]],[2,[0,200],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[120,140],[250]],[[-120,-150],[250]],[[-120,250],[250]],[[230,-50],[250]],[[230,0],[250]]]</t>
   </si>
 </sst>
 </file>
@@ -194,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -208,55 +229,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +251,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -280,7 +306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,59 +320,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,19 +382,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,25 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,133 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +573,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,11 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,7 +630,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,46 +673,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1217,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>80</v>
@@ -1466,6 +1487,106 @@
         <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
         <v>14</v>
       </c>
     </row>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -216,9 +216,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -230,14 +230,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,128 +372,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,187 +382,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +580,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -600,37 +611,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,8 +653,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,145 +679,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1578,7 +1578,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>80</v>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>关卡id</t>
   </si>
@@ -189,10 +189,13 @@
     <t>[[2,[0,0],[100]]]</t>
   </si>
   <si>
+    <t>[[[70,0],[250]],[[-20,-150],[250]],[[20,-150],[250]]]</t>
+  </si>
+  <si>
     <t>[[1,[0,-100],[0,100],[100]],[2,[-100,-50],[100]]]</t>
   </si>
   <si>
-    <t>[[[70,40],[250]],[[-120,-50],[250]],[[20,-250],[250]]]</t>
+    <t>[[[70,40],[250]],[[0,-50],[250]],[[20,-250],[250]]]</t>
   </si>
   <si>
     <t>[[2,[0,-100],[100]],[2,[-100,-50],[100]],[2,[200,150],[100]]]</t>
@@ -207,7 +210,52 @@
     <t>[[1,[-200,-150],[-50,50],[100]],[1,[200,-150],[50,50],[100]],[2,[0,200],[100]]]</t>
   </si>
   <si>
+    <t>[[[0,100],[250]],[[-200,-110],[250]],[[-220,0],[250]],[[230,-50],[250]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-200,-200],[50,50],[100]],[2,[0,150],[100]],[2,[200,-150],[100]]]</t>
+  </si>
+  <si>
     <t>[[[120,140],[250]],[[-120,-150],[250]],[[-120,250],[250]],[[230,-50],[250]],[[230,0],[250]]]</t>
+  </si>
+  <si>
+    <t>[[[220,0],[250]],[[-60,-150],[250]],[[-120,250],[250]],[[230,-50],[250]],[[-230,0],[250]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-200,0],[0,200],[100]],[1,[0,-200],[200,0],[100]]]</t>
+  </si>
+  <si>
+    <t>[[2,[-100,200],[100]],[2,[180,-220],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[-220,0],[250]],[[-200,-150],[250]],[[-220,250],[250]],[[230,-50],[250]],[[230,0],[250]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-150,0],[150,0],[100]],[2,[0,0],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[-220,-50],[250]],[[-200,-150],[250]],[[-220,250],[250]],[[230,170],[250]],[[230,-90],[250]]]</t>
+  </si>
+  <si>
+    <t>[[1,[0,200],[200,200],[100]],[1,[0,-200],[-200,-200],[100]],[1,[200,0],[200,-200],[100]],[1,[-200,0],[-200,200],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[0,100],[250]],[[-200,-180],[250]],[[-240,0],[250]],[[0,250],[250]],[[230,50],[250]],[[130,0],[200]]]</t>
+  </si>
+  <si>
+    <t>[[[0,-180],[250]],[[-200,-180],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,50],[250]],[[200,0],[200]]]</t>
+  </si>
+  <si>
+    <t>[[[0,-180],[250]],[[-200,-180],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,150],[250]],[[230,0],[200]]]</t>
+  </si>
+  <si>
+    <t>[[1,[-200,-200],[-100,-100],[100]],[1,[-200,200],[-100,100],[100]],[1,[200,200],[100,100],[100]],[1,[200,-200],[100,-100],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[0,-180],[250]],[[-200,-170],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,150],[250]],[[230,0],[200]]]</t>
+  </si>
+  <si>
+    <t>[[1,[0,100],[200,100],[100]],[1,[-200,-100],[0,-100],[100]],[1,[0,-100],[0,100],[100]],[2,[0,0],[100]]]</t>
   </si>
 </sst>
 </file>
@@ -215,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -237,7 +285,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,8 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,111 +414,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,31 +430,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,151 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,18 +627,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -611,11 +657,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +687,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,40 +721,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,16 +739,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,115 +757,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1187,7 +1235,7 @@
     <col min="3" max="3" width="13.5416666666667" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
-    <col min="6" max="6" width="13.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1495,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -1504,7 +1552,7 @@
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1515,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1524,7 +1572,7 @@
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1535,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1544,7 +1592,7 @@
         <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1555,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1564,7 +1612,7 @@
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1575,7 +1623,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -1584,9 +1632,249 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
         <v>14</v>
       </c>
     </row>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>关卡id</t>
   </si>
@@ -240,22 +240,25 @@
     <t>[[1,[0,200],[200,200],[100]],[1,[0,-200],[-200,-200],[100]],[1,[200,0],[200,-200],[100]],[1,[-200,0],[-200,200],[100]]]</t>
   </si>
   <si>
-    <t>[[[0,100],[250]],[[-200,-180],[250]],[[-240,0],[250]],[[0,250],[250]],[[230,50],[250]],[[130,0],[200]]]</t>
-  </si>
-  <si>
-    <t>[[[0,-180],[250]],[[-200,-180],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,50],[250]],[[200,0],[200]]]</t>
-  </si>
-  <si>
-    <t>[[[0,-180],[250]],[[-200,-180],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,150],[250]],[[230,0],[200]]]</t>
+    <t>[[[0,100],[250]],[[-200,-180],[250]],[[-240,0],[250]],[[0,250],[250]],[[230,50],[250]],[[130,0],[250]]]</t>
+  </si>
+  <si>
+    <t>[[[0,-180],[250]],[[-200,-180],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,50],[250]],[[200,0],[250]]]</t>
+  </si>
+  <si>
+    <t>[[[0,-180],[250]],[[-200,-180],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,150],[250]],[[230,0],[250]]]</t>
   </si>
   <si>
     <t>[[1,[-200,-200],[-100,-100],[100]],[1,[-200,200],[-100,100],[100]],[1,[200,200],[100,100],[100]],[1,[200,-200],[100,-100],[100]]]</t>
   </si>
   <si>
-    <t>[[[0,-180],[250]],[[-200,-170],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,150],[250]],[[230,0],[200]]]</t>
+    <t>[[[0,-180],[250]],[[-200,-170],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,150],[250]],[[230,0],[250]]]</t>
   </si>
   <si>
     <t>[[1,[0,100],[200,100],[100]],[1,[-200,-100],[0,-100],[100]],[1,[0,-100],[0,100],[100]],[2,[0,0],[100]]]</t>
+  </si>
+  <si>
+    <t>[[[0,-180],[250]],[[-200,-180],[250]],[[-220,0],[250]],[[0,250],[250]],[[230,150],[250]],[[230,0],[250]],[[230,-140],[250]]]</t>
   </si>
 </sst>
 </file>
@@ -263,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -277,8 +280,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,34 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -343,65 +409,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,14 +423,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -430,25 +433,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,157 +607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,24 +624,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -657,17 +642,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,17 +662,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,16 +689,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,133 +742,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1222,19 +1225,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7.26666666666667" customWidth="1"/>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="2" max="2" width="123.375" customWidth="1"/>
     <col min="3" max="3" width="13.5416666666667" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="62.25" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1823,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -1832,49 +1835,9 @@
         <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
         <v>14</v>
       </c>
     </row>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>关卡id</t>
   </si>
@@ -123,16 +123,13 @@
     <t>initial_props</t>
   </si>
   <si>
-    <t>[[[200,200],[250]]]</t>
+    <t>[[[0,0],[250]]]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
     <t>[[1,5],[2,2]]</t>
-  </si>
-  <si>
-    <t>[[[0,0],[250]]]</t>
   </si>
   <si>
     <t>[[1,[-150,0],[150,0],[100]]]</t>
@@ -266,15 +263,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -289,7 +301,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,44 +382,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,75 +414,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -433,91 +430,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,90 +611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,17 +624,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,35 +674,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,11 +706,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,8 +1224,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1306,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1315,7 +1312,7 @@
         <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1326,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -1346,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -1355,7 +1352,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -1366,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1375,7 +1372,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1386,7 +1383,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -1395,7 +1392,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -1406,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1415,7 +1412,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -1426,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1435,7 +1432,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -1446,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1466,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1475,7 +1472,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>14</v>
@@ -1486,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1506,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -1515,7 +1512,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -1526,7 +1523,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -1535,7 +1532,7 @@
         <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -1546,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -1555,7 +1552,7 @@
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1566,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1575,7 +1572,7 @@
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1586,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1595,7 +1592,7 @@
         <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1606,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1615,7 +1612,7 @@
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1626,7 +1623,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -1635,7 +1632,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1646,7 +1643,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -1666,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -1675,7 +1672,7 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1686,7 +1683,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -1695,7 +1692,7 @@
         <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1706,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -1715,7 +1712,7 @@
         <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1726,7 +1723,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1735,7 +1732,7 @@
         <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1746,7 +1743,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -1766,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -1775,7 +1772,7 @@
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -1786,7 +1783,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -1795,7 +1792,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1806,7 +1803,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -1815,7 +1812,7 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -1826,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -1835,7 +1832,7 @@
         <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -263,9 +263,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -284,6 +284,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -292,23 +382,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,103 +414,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -430,187 +430,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,12 +624,64 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -652,54 +704,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,25 +721,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,130 +739,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1286,10 +1286,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>

--- a/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
+++ b/LuaTemplate/Share/trapballs/配置表/round-关卡表.xlsx
@@ -159,7 +159,7 @@
     <t>[[[70,0],[250]],[[-20,-50],[250]],[[20,-150],[250]]]</t>
   </si>
   <si>
-    <t>[[2,[-100,200],[100]]]</t>
+    <t>[[2,[-100,150],[100]]]</t>
   </si>
   <si>
     <t>[[1,[-100,-100],[100,100],[100]]]</t>
@@ -263,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -278,28 +278,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,9 +338,49 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,24 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,53 +420,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -430,187 +430,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,6 +621,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,6 +644,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +690,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -701,171 +721,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
